--- a/students.xlsx
+++ b/students.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -505,13 +505,24 @@
         <v>dd</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>685e368a-db07-4101-bab8-7728b7e27d43</v>
+      </c>
+      <c r="B11" t="str">
+        <v>w@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>